--- a/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-006.xlsx
+++ b/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-006.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/aoi_yaegashi_avantcorp_com/Documents/ドキュメント/研修/IT研修/システム開発模擬演習/総合テスト/6 シナリオ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\6. シナリオテスト（管理者＆ユーザー連携）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D066CA252ABDACC10480FD913EE5A73EEDF63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90FA086A-E82E-4BBE-8DDB-021DAEF924F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7B178-BE0A-416A-9983-364BBD17E7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="380" windowWidth="10040" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="実施前" sheetId="1" r:id="rId1"/>
-    <sheet name="実施後" sheetId="2" r:id="rId2"/>
+    <sheet name="DB操作前" sheetId="3" r:id="rId1"/>
+    <sheet name="DB操作後" sheetId="4" r:id="rId2"/>
+    <sheet name="実施前" sheetId="1" r:id="rId3"/>
+    <sheet name="実施後" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -115,6 +117,265 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12116423" cy="3854648"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D480A83C-4DE2-4FD9-8F3A-48C19683924A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11983066" cy="3264068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1948F424-5B87-4378-89B7-C50C6A8A002F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12141824" cy="5131064"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87756485-0971-4E9A-AE7F-448497731B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235573</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6744332F-C431-2D4B-4013-66F21904CBED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12122773" cy="3930852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235573</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A612AA-A82B-9AF7-ECC4-6C4F7C6ACB0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="12122773" cy="4115011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216522</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AE4A3E-C608-2F6D-8FD1-23C7BEFAE2E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8458200"/>
+          <a:ext cx="12103722" cy="4972306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -251,7 +512,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -562,11 +823,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2226E472-53D9-4BCA-BD79-0F54D7F79138}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B30DA9C-A349-4AB6-9619-709628D09DF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="D115" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="D135" workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -596,12 +889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD5FC72-15F1-4C7B-9CE5-BDCBE70FB70F}">
   <dimension ref="C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q35" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
